--- a/Server/packetMaker/packetData.xlsx
+++ b/Server/packetMaker/packetData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="37470" windowHeight="18375"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -15,210 +15,163 @@
     <sheet name="clientPacketHeader" sheetId="5" r:id="rId6"/>
     <sheet name="clientPacketFactory" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>C_REQ_ID_PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C_REQ_CHATTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classHeader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>packetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>encode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>streamIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>streamOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>formString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        stream &lt;&lt; {0};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    void decode(Stream &amp;stream) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        stream &gt;&gt; &amp;{0};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>std::string</t>
   </si>
   <si>
     <t>class PK_{0} : public Packet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    /*{0}*/    E_{1} = {0},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>macro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tailer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     }
 };</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tailer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tailer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classTailer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>valueName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>valueType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//짝수 컬럼은 데이터 타입, 홀수는 변수 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_CHATTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_DB_REQ_ID_PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_DB_ANS_ID_PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#하트비트 패킷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#ID/PW 확인 패킷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#채팅 메시지 패킷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UInt64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            PacketUtil.encode(packet_, {0});</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>encodeFunction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decodeFunction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decodeFuncHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>encodeFuncHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        {0} = PacketUtil.decode{1}(packet, ref offset);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    void PacketInterface.encode()
         {
             PacketUtil.encodeHeader(packet_, this.type());</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    void PacketInterface.decode(byte[] packet, ref int offset)
         { </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        MemoryStream PacketInterface.getStream()
@@ -226,7 +179,6 @@
             return packet_;
         }
     }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            }
@@ -234,33 +186,27 @@
         }
     }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                case PacketType.E_{0}:    return new PK_{0}();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        }
         return nullptr;
     }
 };</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            case E_{0}:    return new PK_{0}();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">public:
     PacketType type() {{ return E_{0}; }}
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    void encode(Stream &amp;stream) {{
         stream &lt;&lt; (Int64) this-&gt;type();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>using System;
@@ -295,39 +241,30 @@
     {{
         Int64 PacketInterface.type() {{ return (Int64) PacketType.E_{0}; }}
         Int64 type() {{ return (Int64) PacketType.E_{0}; }}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clientId_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C_REQ_EXIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_EXIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#종료 패킷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#Terminal 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_NOTIFY_TERMINAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#패킷 명칭 REQ 는 요청, ANS는 답변, NOTIFY는 알림으로 패킷 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#packet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#pragma once
@@ -340,22 +277,18 @@
     virtual void encode(Stream &amp;stream) { stream &lt;&lt; (Int64) this-&gt;type(); };
     virtual void decode(Stream &amp;stream) { };
 };</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C_NOTIFY_HEARTBEAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    /*{0}*/    E_{1} = {0},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#pragma once
 #include "stdafx.h"
 #define PACKET_MAKE_DATE "{0}" 
 enum PacketType : Int64 {{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>using System;
@@ -375,71 +308,54 @@
         }}
     }}
     enum PacketType : long {{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#채팅서버 패킷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_CHTTING_NOTIFY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_DB_REQ_LOAD_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_DB_ANS_PARSE_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_LOGIN_NOTIFY_ID_LOADED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>std::string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>std::string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ip_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>port_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UInt32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_ID_PW_FAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_ID_PW_SUCCESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>oidAccountId_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C_REQ_REGIST_CHATTING_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#pragma once
@@ -453,79 +369,442 @@
     Packet* getPacket(Int64 packetType) 
     {
         switch (packetType) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.IO;
+namespace DummyClient
+{</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.Threading.Tasks;
+using System.Data;
+using System.IO;
+namespace UnityGame
+{{
+    static class PacketMakeDate
+    {{
+        static public string stamp()
+        {{
+            return "{0}";
+        }}
+    }}
+    enum PacketType : long {{</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.IO;
+namespace UnityGame
+{</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.Threading.Tasks;
+using System.Data;
+using System.IO;
+namespace UnityGame
+{
+    public static class PacketFactory
+    {
+        public static PacketInterface getPacket(Int64 packetType) 
+        {
+            switch ((PacketType)packetType)
+            {</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.IO;
+namespace UnityGame
+{{
+    static class PacketMakeDate
+    {{
+        static public string stamp()
+        {{
+            return "{0}";
+        }}
+    }}
+    enum PacketType : long {{</t>
+  </si>
+  <si>
+    <t>using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.IO;
+namespace UnityGame
+{
+    public static class PacketFactory
+    {
+        public static PacketInterface getPacket(Int64 packetType) 
+        {
+            switch ((PacketType)packetType)
+            {</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color theme="10"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -535,97 +814,378 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -641,14 +1201,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -684,14 +1243,13 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -715,15 +1273,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1013,21 +1562,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.50000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.5" style="1"/>
+    <col min="1" max="1" style="1" width="25.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="16384" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.500000">
+      <c r="A1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1040,52 +1589,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,12 +1651,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -1130,7 +1679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1176,12 +1725,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1198,7 +1747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1215,7 +1764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1238,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1261,7 +1810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -1272,12 +1821,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1856,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A12 A27:A1048576 A14:A25">
+  <conditionalFormatting sqref="A1:A12 A14:A25 A27:A1048576">
     <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="_ANS_">
       <formula>NOT(ISERROR(SEARCH("_ANS_",A1)))</formula>
     </cfRule>
@@ -1318,7 +1867,7 @@
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A27:A1048576 A14:A25">
+  <conditionalFormatting sqref="A1:A12 A14:A25 A27:A1048576">
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C_">
       <formula>NOT(ISERROR(SEARCH("C_",A1)))</formula>
     </cfRule>
@@ -1345,27 +1894,27 @@
       <formula>NOT(ISERROR(SEARCH("I_",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="57.25" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="11" width="14.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="57.25500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1373,85 +1922,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="148.500000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="40.500000">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" ht="27.000000">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="45" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="45.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1459,52 +2008,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="67.500000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="51.5" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="51.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1512,52 +2062,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="175.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="175.500000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="54.000000">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="1" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="60.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1565,93 +2116,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="108.000000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54.000000">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="67.500000">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" ht="40.500000">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" ht="27.000000">
+      <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="36.5" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="36.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1659,52 +2210,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="243" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="216.000000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="27.000000">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" style="1" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="58.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1712,32 +2264,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="189.000000">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" ht="67.500000">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Server/packetMaker/packetData.xlsx
+++ b/Server/packetMaker/packetData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Graduating\Server\packetMaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="700" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="700"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -15,13 +20,12 @@
     <sheet name="clientPacketHeader" sheetId="5" r:id="rId6"/>
     <sheet name="clientPacketFactory" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>C_REQ_ID_PW</t>
   </si>
@@ -209,34 +213,6 @@
         stream &lt;&lt; (Int64) this-&gt;type();</t>
   </si>
   <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace DummyClient
-{</t>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace DummyClient
-{
-    public static class PacketFactory
-    {
-        public static PacketInterface getPacket(Int64 packetType) 
-        {
-            switch ((PacketType)packetType)
-            {</t>
-  </si>
-  <si>
     <t xml:space="preserve">    public class PK_{0} : PacketData, PacketInterface
     {{
         Int64 PacketInterface.type() {{ return (Int64) PacketType.E_{0}; }}
@@ -256,9 +232,6 @@
   </si>
   <si>
     <t>#Terminal 알림</t>
-  </si>
-  <si>
-    <t>I_NOTIFY_TERMINAL</t>
   </si>
   <si>
     <t>#패킷 명칭 REQ 는 요청, ANS는 답변, NOTIFY는 알림으로 패킷 분류</t>
@@ -291,25 +264,6 @@
 enum PacketType : Int64 {{</t>
   </si>
   <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace DummyClient
-{{
-    static class PacketMakeDate
-    {{
-        static public string stamp()
-        {{
-            return "{0}";
-        }}
-    }}
-    enum PacketType : long {{</t>
-  </si>
-  <si>
     <t>#채팅서버 패킷</t>
   </si>
   <si>
@@ -353,9 +307,6 @@
   </si>
   <si>
     <t>oidAccountId_</t>
-  </si>
-  <si>
-    <t>C_REQ_REGIST_CHATTING_NAME</t>
   </si>
   <si>
     <t>#pragma once
@@ -376,53 +327,8 @@
 using System.Linq;
 using System.Text;
 using System.IO;
-namespace DummyClient
-{</t>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace UnityGame
-{{
-    static class PacketMakeDate
-    {{
-        static public string stamp()
-        {{
-            return "{0}";
-        }}
-    }}
-    enum PacketType : long {{</t>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.IO;
 namespace UnityGame
 {</t>
-  </si>
-  <si>
-    <t>using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-using System.Data;
-using System.IO;
-namespace UnityGame
-{
-    public static class PacketFactory
-    {
-        public static PacketInterface getPacket(Int64 packetType) 
-        {
-            switch ((PacketType)packetType)
-            {</t>
   </si>
   <si>
     <t>using System;
@@ -456,164 +362,83 @@
             switch ((PacketType)packetType)
             {</t>
   </si>
+  <si>
+    <t>C_REQ_ENTER_GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_ANS_ENTER_GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_NOTIFY_TERMINAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_REGIST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_ANS_REGIST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799980"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -625,186 +450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -866,326 +517,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1201,7 +575,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.799980"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1243,7 +617,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.799980"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1273,6 +647,15 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1562,22 +945,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.50000000" defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="25.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="16384" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.500000">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>27</v>
@@ -1589,52 +973,52 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,35 +1035,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1071,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1702,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1710,13 +1094,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1725,60 +1109,60 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>29</v>
@@ -1787,21 +1171,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>29</v>
@@ -1810,53 +1194,86 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A12 A14:A25 A27:A1048576">
+  <conditionalFormatting sqref="A1:A12 A28:A1048576 A14:A26">
     <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="_ANS_">
       <formula>NOT(ISERROR(SEARCH("_ANS_",A1)))</formula>
     </cfRule>
@@ -1867,7 +1284,7 @@
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A14:A25 A27:A1048576">
+  <conditionalFormatting sqref="A1:A12 A28:A1048576 A14:A26">
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C_">
       <formula>NOT(ISERROR(SEARCH("C_",A1)))</formula>
     </cfRule>
@@ -1894,27 +1311,28 @@
       <formula>NOT(ISERROR(SEARCH("I_",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="57.25500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="57.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1922,15 +1340,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="148.500000">
+    <row r="2" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.500000">
+    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.000000">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1954,7 +1372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1980,27 +1398,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="45.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2008,15 +1427,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="67.500000">
+    <row r="2" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2034,27 +1453,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="51.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2062,15 +1482,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="175.500000">
+    <row r="2" spans="1:2" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +1498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54.000000">
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2088,27 +1508,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="60.13000107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2116,23 +1537,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="108.000000">
+    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="54.000000">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="67.500000">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -2140,7 +1561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.500000">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +1569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +1577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.000000">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2164,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -2172,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2182,27 +1603,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="36.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2210,23 +1632,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216.000000">
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27.000000">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2236,27 +1658,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="7.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="58.75500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2264,15 +1687,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="189.000000">
+    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +1703,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.500000">
+    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2290,7 +1713,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Server/packetMaker/packetData.xlsx
+++ b/Server/packetMaker/packetData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Graduating\Server\packetMaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="700"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="690" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,13 @@
     <sheet name="clientPacketHeader" sheetId="5" r:id="rId6"/>
     <sheet name="clientPacketFactory" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>C_REQ_ID_PW</t>
   </si>
@@ -364,81 +360,201 @@
   </si>
   <si>
     <t>C_REQ_ENTER_GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_ENTER_GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I_NOTIFY_TERMINAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C_REQ_REGIST_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_ANS_REGIST_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_CHATTING_EXIT</t>
+  </si>
+  <si>
+    <t>S_ANS_CHATTING_EXIT</t>
+  </si>
+  <si>
+    <t>C_REQ_GAME_EXIT</t>
+  </si>
+  <si>
+    <t>S_ANS_GAME_EXIT</t>
+  </si>
+  <si>
+    <t>C_REQ_CHAT_EXIT</t>
+  </si>
+  <si>
+    <t>S_ANS_CHATEXIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -450,18 +566,185 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799950"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -476,7 +759,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -489,7 +774,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -502,7 +789,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -515,49 +804,346 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -575,7 +1161,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,7 +1203,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,15 +1233,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -945,21 +1522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.50000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="1"/>
+    <col min="1" max="1" style="1" width="25.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.500000">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -973,167 +1550,119 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1142,15 +1671,21 @@
         <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
@@ -1159,10 +1694,10 @@
         <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>29</v>
@@ -1171,87 +1706,105 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
@@ -1260,79 +1813,123 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A12 A28:A1048576 A14:A26">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="_ANS_">
+  <conditionalFormatting sqref="A1:A16 A18:A30">
+    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="_ANS_">
       <formula>NOT(ISERROR(SEARCH("_ANS_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="_REQ_">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="_REQ_">
       <formula>NOT(ISERROR(SEARCH("_REQ_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="7" priority="24" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A12 A28:A1048576 A14:A26">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C_">
+  <conditionalFormatting sqref="A1:A16 A18:A30">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="C_">
       <formula>NOT(ISERROR(SEARCH("C_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="I_">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="I_">
       <formula>NOT(ISERROR(SEARCH("I_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="_ANS_">
-      <formula>NOT(ISERROR(SEARCH("_ANS_",A13)))</formula>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="_ANS_">
+      <formula>NOT(ISERROR(SEARCH("_ANS_",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="_REQ_">
-      <formula>NOT(ISERROR(SEARCH("_REQ_",A13)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="_REQ_">
+      <formula>NOT(ISERROR(SEARCH("_REQ_",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="#">
-      <formula>NOT(ISERROR(SEARCH("#",A13)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="#">
+      <formula>NOT(ISERROR(SEARCH("#",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A17">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="C_">
-      <formula>NOT(ISERROR(SEARCH("C_",A13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("C_",A17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="I_">
-      <formula>NOT(ISERROR(SEARCH("I_",A13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("I_",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="57.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="11" width="14.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="57.25500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="148.500000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="40.500000">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="27.000000">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1398,28 +1995,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="45.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="67.500000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +2032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +2040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1453,28 +2050,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="51.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="175.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="175.500000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +2087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +2095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="54.000000">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1508,28 +2105,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="60.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +2134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="108.000000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +2142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="54.000000">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1553,7 +2150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="67.500000">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +2158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="40.500000">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1569,7 +2166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +2174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="27.000000">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1585,7 +2182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -1593,7 +2190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1603,28 +2200,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="36.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +2229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="216.000000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +2237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +2245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="27.000000">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1658,28 +2255,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="7.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="58.75500107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="189.000000">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1695,7 +2292,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +2300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="67.500000">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +2310,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Server/packetMaker/packetData.xlsx
+++ b/Server/packetMaker/packetData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Graduating\Server\packetMaker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="690" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="690"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -15,13 +20,12 @@
     <sheet name="clientPacketHeader" sheetId="5" r:id="rId6"/>
     <sheet name="clientPacketFactory" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>C_REQ_ID_PW</t>
   </si>
@@ -374,12 +378,6 @@
     <t>S_ANS_REGIST_NAME</t>
   </si>
   <si>
-    <t>C_REQ_CHATTING_EXIT</t>
-  </si>
-  <si>
-    <t>S_ANS_CHATTING_EXIT</t>
-  </si>
-  <si>
     <t>C_REQ_GAME_EXIT</t>
   </si>
   <si>
@@ -390,171 +388,76 @@
   </si>
   <si>
     <t>S_ANS_CHATEXIT</t>
+  </si>
+  <si>
+    <t>C_REQ_INTO_ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_ANS_INTO_ROOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799950"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -566,185 +469,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799950"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799950"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -759,9 +495,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -774,9 +508,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -789,9 +521,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -804,350 +534,53 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="5" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+  <cellStyles count="3">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="4" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1161,7 +594,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.799950"/>
+          <bgColor theme="9" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1203,7 +636,91 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.799950"/>
+          <bgColor theme="9" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79992065187536243"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1233,6 +750,15 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1522,21 +1048,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.50000000" defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="25.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="16384" style="1" width="14.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.500000">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
@@ -1550,72 +1076,72 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,12 +1158,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -1660,7 +1186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1683,7 +1209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1706,12 +1232,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -1728,7 +1254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1768,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -1791,7 +1317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -1802,7 +1328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -1813,12 +1339,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1846,7 +1372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1857,7 +1383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -1866,70 +1392,130 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A16 A18:A30">
-    <cfRule type="containsText" dxfId="9" priority="22" operator="containsText" text="_ANS_">
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="_ANS_">
       <formula>NOT(ISERROR(SEARCH("_ANS_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="_REQ_">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="_REQ_">
       <formula>NOT(ISERROR(SEARCH("_REQ_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="24" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="17" priority="34" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A16 A18:A30">
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="C_">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="C_">
       <formula>NOT(ISERROR(SEARCH("C_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="I_">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="I_">
       <formula>NOT(ISERROR(SEARCH("I_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="_ANS_">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="_ANS_">
       <formula>NOT(ISERROR(SEARCH("_ANS_",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="_REQ_">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="_REQ_">
       <formula>NOT(ISERROR(SEARCH("_REQ_",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="C_">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="C_">
       <formula>NOT(ISERROR(SEARCH("C_",A17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="I_">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="I_">
       <formula>NOT(ISERROR(SEARCH("I_",A17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="_ANS_">
+      <formula>NOT(ISERROR(SEARCH("_ANS_",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="_REQ_">
+      <formula>NOT(ISERROR(SEARCH("_REQ_",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="#">
+      <formula>NOT(ISERROR(SEARCH("#",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="C_">
+      <formula>NOT(ISERROR(SEARCH("C_",A32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="I_">
+      <formula>NOT(ISERROR(SEARCH("I_",A32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="_ANS_">
+      <formula>NOT(ISERROR(SEARCH("_ANS_",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="_REQ_">
+      <formula>NOT(ISERROR(SEARCH("_REQ_",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="#">
+      <formula>NOT(ISERROR(SEARCH("#",A33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="C_">
+      <formula>NOT(ISERROR(SEARCH("C_",A33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="I_">
+      <formula>NOT(ISERROR(SEARCH("I_",A33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="57.25500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="57.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="148.500000">
+    <row r="2" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1953,7 +1539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.500000">
+    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27.000000">
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +1555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -1995,28 +1581,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="45.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2024,7 +1610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="67.500000">
+    <row r="2" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +1618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +1626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2050,28 +1636,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="51.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2079,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="175.500000">
+    <row r="2" spans="1:2" ht="175.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +1673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +1681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54.000000">
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2105,28 +1691,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="60.13000107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="108.000000">
+    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +1728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54.000000">
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +1736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.500000">
+    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +1744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.500000">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -2166,7 +1752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -2174,7 +1760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.000000">
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -2182,7 +1768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -2190,7 +1776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -2200,28 +1786,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="36.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="216.000000">
+    <row r="2" spans="1:2" ht="216" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +1823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2245,7 +1831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.000000">
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2255,28 +1841,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="7.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="58.75500107" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -2284,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="189.000000">
+    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2292,7 +1878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="67.500000">
+    <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +1896,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>